--- a/Q2/defect_log.xlsx
+++ b/Q2/defect_log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdw12_000\Desktop\Ara\BCPR280_Part1\Q1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdw12_000\Desktop\Ara\BCPR280_Part1\Q2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DD688A-D6D8-483C-AC25-09FAC3A57837}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F203601B-1814-4D1F-B9C0-EAD2F06149B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
   <si>
     <t>PSP Defect Recording Log</t>
   </si>
@@ -607,26 +607,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Compile</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Checking whether user input is empty, isEmpty() is not a valid function. Used userInput === '' instead</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>When user puts nothing and clicked 'Guess !' Button, program still runs with no issue, increase the count value and display "Try Higher". Must be not increasing the count as we cannot guess wieh empty value to randomly generated number, so it will now display that User didnt put any, please type something without increase count.</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>Test</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Consider adding a 'lang' attribute to the html start tag to declare the language of this document</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>Stray end tag input. My code was like &lt;input&gt;&lt;/input&gt;, I changed to &lt;input blabla /&gt;</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -643,19 +627,23 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Number Guessing Game Q1</t>
+    <t>For jasmine test, it follows Model class, and Vue part in order. So I had to re-order of my models, all classes at the top and then Vue, otherwise Jasmine couldn’t read class that comes after Vue. Says undefined for Q2 class.</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Code</t>
+    <t>While I was making jasmine test form, made few typos.</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Test</t>
+    <t>While testing between userinput and randomly generated number, had to declared each variable userInput with either var or let othewise, it keeps using previoud userInput value. Hence getting different output.</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>When user puts none integer value, .e.g alphabet, word such as a string, should not increase the number of guess but it did. So fixed not to count if its not an integer.</t>
+    <t>X</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number Guessing Game Q2</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -735,7 +723,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -913,42 +901,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -997,6 +954,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1012,22 +978,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1366,10 +1316,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1436,213 +1386,190 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="27">
-        <v>43554</v>
-      </c>
-      <c r="B7" s="24">
+    <row r="7" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="20">
+        <v>43567</v>
+      </c>
+      <c r="B7" s="18">
         <v>1</v>
       </c>
-      <c r="C7" s="24">
-        <v>80</v>
-      </c>
-      <c r="D7" s="24" t="s">
+      <c r="C7" s="18">
+        <v>70</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="F7" s="18">
+        <v>7</v>
+      </c>
+      <c r="G7" s="18">
+        <v>1</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="20">
+        <v>43567</v>
+      </c>
+      <c r="B8" s="18">
+        <v>2</v>
+      </c>
+      <c r="C8" s="18">
+        <v>20</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="24">
+      <c r="E8" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="18">
         <v>1</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G8" s="18">
+        <v>2</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="20">
+        <v>43567</v>
+      </c>
+      <c r="B9" s="18">
+        <v>3</v>
+      </c>
+      <c r="C9" s="18">
+        <v>70</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="18">
         <v>1</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="G9" s="18">
+        <v>3</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A10" s="20">
+        <v>43567</v>
+      </c>
+      <c r="B10" s="18">
+        <v>4</v>
+      </c>
+      <c r="C10" s="18">
+        <v>20</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="18">
+        <v>1</v>
+      </c>
+      <c r="G10" s="18">
+        <v>4</v>
+      </c>
+      <c r="H10" s="19" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="27">
-        <v>43554</v>
-      </c>
-      <c r="B8" s="24">
-        <v>2</v>
-      </c>
-      <c r="C8" s="24">
-        <v>90</v>
-      </c>
-      <c r="D8" s="24" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="20">
+        <v>43567</v>
+      </c>
+      <c r="B11" s="18">
+        <v>5</v>
+      </c>
+      <c r="C11" s="18">
+        <v>20</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E11" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F11" s="18">
         <v>1</v>
       </c>
-      <c r="G8" s="24">
-        <v>2</v>
-      </c>
-      <c r="H8" s="25" t="s">
+      <c r="G11" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="19" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="27">
-        <v>43554</v>
-      </c>
-      <c r="B9" s="24">
-        <v>3</v>
-      </c>
-      <c r="C9" s="24">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="20">
+        <v>43567</v>
+      </c>
+      <c r="B12" s="18">
+        <v>6</v>
+      </c>
+      <c r="C12" s="18">
         <v>20</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D12" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E12" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="18">
+        <v>1</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="24">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="20">
+        <v>43567</v>
+      </c>
+      <c r="B13" s="18">
+        <v>7</v>
+      </c>
+      <c r="C13" s="18">
+        <v>20</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="18">
         <v>1</v>
       </c>
-      <c r="G9" s="24">
-        <v>3</v>
-      </c>
-      <c r="H9" s="25" t="s">
+      <c r="G13" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A10" s="27">
-        <v>43554</v>
-      </c>
-      <c r="B10" s="24">
-        <v>4</v>
-      </c>
-      <c r="C10" s="24">
-        <v>20</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="24">
-        <v>1</v>
-      </c>
-      <c r="G10" s="24">
-        <v>4</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="27">
-        <v>43554</v>
-      </c>
-      <c r="B11" s="24">
-        <v>5</v>
-      </c>
-      <c r="C11" s="24">
-        <v>20</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="24">
-        <v>1</v>
-      </c>
-      <c r="G11" s="24">
-        <v>5</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="27">
-        <v>43554</v>
-      </c>
-      <c r="B12" s="24">
-        <v>6</v>
-      </c>
-      <c r="C12" s="24">
-        <v>20</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="24">
-        <v>1</v>
-      </c>
-      <c r="G12" s="24">
-        <v>6</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="27">
-        <v>43554</v>
-      </c>
-      <c r="B13" s="24">
-        <v>7</v>
-      </c>
-      <c r="C13" s="24">
-        <v>20</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="24">
-        <v>1</v>
-      </c>
-      <c r="G13" s="24">
-        <v>7</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A14" s="28">
-        <v>43554</v>
-      </c>
-      <c r="B14" s="23">
-        <v>8</v>
-      </c>
-      <c r="C14" s="23">
-        <v>80</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="23">
-        <v>1</v>
-      </c>
-      <c r="G14" s="23">
-        <v>8</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>79</v>
-      </c>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H15" s="6"/>
@@ -1769,9 +1696,6 @@
     </row>
     <row r="56" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H56" s="6"/>
-    </row>
-    <row r="57" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H57" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -1801,7 +1725,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1809,13 +1733,13 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -1823,13 +1747,13 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -1837,19 +1761,19 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="19"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="21" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -1857,7 +1781,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="19"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="11" t="s">
         <v>25</v>
       </c>
@@ -1871,7 +1795,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="21" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -1879,13 +1803,13 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="19"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -1893,13 +1817,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="19"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -1907,7 +1831,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="19"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="11" t="s">
         <v>33</v>
       </c>
@@ -1921,7 +1845,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="9" t="s">
@@ -1929,13 +1853,13 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="19"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -1943,7 +1867,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="19"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="11" t="s">
         <v>39</v>
       </c>
